--- a/报表模板/附件12.11加油站油品地罐交接复测计量单.xlsx
+++ b/报表模板/附件12.11加油站油品地罐交接复测计量单.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\osgit\bosclient\BosClientPrototype\报表模板\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CBFE5C-4970-44D4-8DFE-F7302E0739C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地罐交接复测计量单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -746,17 +763,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -820,157 +833,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="10"/>
@@ -986,8 +848,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,194 +880,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1334,449 +1016,169 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2034,654 +1436,641 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="A21" sqref="A21:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
-    <col min="14" max="14" width="2.875" customWidth="1"/>
-    <col min="15" max="15" width="3.375" customWidth="1"/>
-    <col min="16" max="16" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="8" width="9.3984375" customWidth="1"/>
+    <col min="9" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" customWidth="1"/>
+    <col min="14" max="14" width="2.8984375" customWidth="1"/>
+    <col min="15" max="15" width="3.3984375" customWidth="1"/>
+    <col min="16" max="16" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" ht="11.25" customHeight="1" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" ht="29.25" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" ht="29.25" customHeight="1" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" ht="29.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="14" t="str">
         <f>IF(H6="","",IF($F$5="0#车用柴油Ⅵ",H6*(1+(20-F6)*0.0008),H6*(1+(20-F6)*0.0012)))</f>
         <v/>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:16">
-      <c r="A7" s="13" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:16">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:16" ht="36.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="1:16">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18" t="str">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12" t="str">
         <f>IF(E9="","",F9-G9)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="14" t="str">
         <f>IF(E9="","",IF($F$5="0#车用柴油Ⅵ",H9*(1+(20-E9)*0.0008),H9*(1+(20-E9)*0.0012)))</f>
         <v/>
       </c>
-      <c r="J9" s="38" t="str">
+      <c r="J9" s="43" t="str">
         <f>IF(F10="","",H10-H9)</f>
         <v/>
       </c>
-      <c r="K9" s="38" t="str">
+      <c r="K9" s="43" t="str">
         <f>IF(F10="","",I10-I9)</f>
         <v/>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:16">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16" t="s">
+      <c r="L9" s="41"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+    </row>
+    <row r="10" spans="1:16" ht="21" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18" t="str">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="str">
         <f t="shared" ref="H10" si="0">IF(E10="","",F10-G10)</f>
         <v/>
       </c>
-      <c r="I10" s="21" t="str">
+      <c r="I10" s="14" t="str">
         <f t="shared" ref="I10" si="1">IF(E10="","",IF($F$5="0#车用柴油Ⅵ",H10*(1+(20-E10)*0.0008),H10*(1+(20-E10)*0.0012)))</f>
         <v/>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:16">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18" t="str">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="str">
         <f>IF(H10="","",F11-G11)</f>
         <v/>
       </c>
-      <c r="I11" s="21" t="str">
+      <c r="I11" s="14" t="str">
         <f>IF(I10="","",IF($F$5="0#车用柴油Ⅵ",H11*(1+(20-E11)*0.0008),H11*(1+(20-E11)*0.0012)))</f>
         <v/>
       </c>
-      <c r="J11" s="38" t="str">
+      <c r="J11" s="43" t="str">
         <f>IF(J9="","",H12-H11)</f>
         <v/>
       </c>
-      <c r="K11" s="38" t="str">
+      <c r="K11" s="43" t="str">
         <f t="shared" ref="K11" si="2">IF(I12="","",I12-I11)</f>
         <v/>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:16">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18" t="str">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12" t="str">
         <f t="shared" ref="H12:H14" si="3">IF(H11="","",F12-G12)</f>
         <v/>
       </c>
-      <c r="I12" s="21" t="str">
+      <c r="I12" s="14" t="str">
         <f t="shared" ref="I12:I14" si="4">IF(I11="","",IF($F$5="0#车用柴油Ⅵ",H12*(1+(20-E12)*0.0008),H12*(1+(20-E12)*0.0012)))</f>
         <v/>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-    </row>
-    <row r="13" ht="21" customHeight="1" spans="1:16">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18" t="str">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="21" t="str">
+      <c r="I13" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="38" t="str">
+      <c r="J13" s="43" t="str">
         <f>IF(J11="","",H14-H13)</f>
         <v/>
       </c>
-      <c r="K13" s="38" t="str">
+      <c r="K13" s="43" t="str">
         <f t="shared" ref="K13" si="5">IF(I14="","",I14-I13)</f>
         <v/>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:16">
-      <c r="A14" s="19"/>
-      <c r="B14" s="16" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18" t="str">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I14" s="21" t="str">
+      <c r="I14" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1" spans="1:16">
-      <c r="A15" s="13" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-    </row>
-    <row r="16" ht="26.25" spans="1:16">
-      <c r="A16" s="11" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+    </row>
+    <row r="16" spans="1:16" ht="27.6">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="14" t="str">
         <f>IF(H6="","",J9+J11+J13)</f>
         <v/>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="21" t="str">
+      <c r="D16" s="14" t="str">
         <f>IF(H6="","",K9+K11+K13)</f>
         <v/>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="14" t="str">
         <f>IF(D6="","",L9+L11+L13)</f>
         <v/>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="14" t="str">
         <f>IF(H6="","",B16+F16)</f>
         <v/>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="14" t="str">
         <f>IF(H6="","",D16+F16)</f>
         <v/>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="23" t="str">
+      <c r="L16" s="16" t="str">
         <f>IF(H6="","",IF($F$5="0#车用柴油Ⅵ",0.05,0.05))</f>
         <v/>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-    </row>
-    <row r="17" ht="26.25" spans="1:16">
-      <c r="A17" s="11" t="s">
+      <c r="M16" s="10"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+    </row>
+    <row r="17" spans="1:16" ht="27.6">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="14" t="str">
         <f>IF(F10="","",H6-H16)</f>
         <v/>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="23" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(B17="","",B17/D6*100)</f>
         <v/>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="14" t="str">
         <f>IF(F10="","",J6-J16)</f>
         <v/>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="23" t="str">
+      <c r="H17" s="16" t="str">
         <f>IF(F10="","",F17/D6*100)</f>
         <v/>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="41" t="str">
+      <c r="J17" s="21" t="str">
         <f>IF(F10="","",IF(F17-D6*L16/100&lt;0,0,F17-D6*L16/100))</f>
         <v/>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="23" t="str">
+      <c r="L17" s="16" t="str">
         <f>IF(J17="","",J17/D6*100)</f>
         <v/>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A18" s="24" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="25" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="24" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" ht="54.75" customHeight="1" spans="1:16">
-      <c r="A19" s="27" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+    </row>
+    <row r="19" spans="1:16" ht="54.75" customHeight="1">
+      <c r="A19" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-    </row>
-    <row r="20" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A20" s="29" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.75" customHeight="1">
+      <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="N7:N19"/>
+    <mergeCell ref="O7:O19"/>
+    <mergeCell ref="P7:P19"/>
+    <mergeCell ref="A2:M3"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A23:M23"/>
     <mergeCell ref="A24:M24"/>
@@ -2697,26 +2086,40 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N7:N19"/>
-    <mergeCell ref="O7:O19"/>
-    <mergeCell ref="P7:P19"/>
-    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"昌北油库,和乐油库,龙南油库,水东油库,白露山油库,长塘油库,金鸡坡油库,历尧油库,湘东油库,张家山油库,仙女湖油库,枯桐岭油库,白马油库,灵溪油库,码头油库,株洲815油库,七宝山油库"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"卸前,卸后"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"0#车用柴油Ⅵ,92#车用汽油Ⅵ,95#车用汽油Ⅵ,爱跑98#车用汽油Ⅵ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M14" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="1.14173228346457" right="0.354330708661417" top="0.72" bottom="0.83" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="1.14173228346457" right="0.35433070866141703" top="0.72" bottom="0.83" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
